--- a/issues-data/issues.xlsx
+++ b/issues-data/issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>Tiger Nixon</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Open / Close Status</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Suspendisse accumsan tincidunt odio, eget feugiat sem aliquet aliquet. Morbi placerat quam libero, vel pharetra velit sodales sit amet. Nullam egestas varius pellentesque. Nunc a lectus tempus, semper odio sed, varius metus. Proin mattis metus vel suscipit ornare.</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,10 +1121,9 @@
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
@@ -1137,7 +1139,7 @@
         <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>69</v>
@@ -1146,15 +1148,14 @@
         <v>75</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3"/>
+        <v>76</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
@@ -1168,14 +1169,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>5421</v>
-      </c>
       <c r="E2" s="1">
         <v>40658</v>
       </c>
       <c r="F2" s="2">
         <v>320800</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1188,14 +1189,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>8422</v>
-      </c>
       <c r="E3" s="1">
         <v>40749</v>
       </c>
       <c r="F3" s="2">
         <v>170750</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1208,14 +1209,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>1562</v>
-      </c>
       <c r="E4" s="1">
         <v>39825</v>
       </c>
       <c r="F4" s="2">
         <v>86000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,14 +1229,14 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>6224</v>
-      </c>
       <c r="E5" s="1">
         <v>40997</v>
       </c>
       <c r="F5" s="2">
         <v>433060</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1248,14 +1249,14 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5407</v>
-      </c>
       <c r="E6" s="1">
         <v>39780</v>
       </c>
       <c r="F6" s="2">
         <v>162700</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1268,14 +1269,14 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>4804</v>
-      </c>
       <c r="E7" s="1">
         <v>41245</v>
       </c>
       <c r="F7" s="2">
         <v>372000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1288,14 +1289,14 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>9608</v>
-      </c>
       <c r="E8" s="1">
         <v>41127</v>
       </c>
       <c r="F8" s="2">
         <v>137500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1308,14 +1309,14 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>6200</v>
-      </c>
       <c r="E9" s="1">
         <v>40465</v>
       </c>
       <c r="F9" s="2">
         <v>327900</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1328,14 +1329,14 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>2360</v>
-      </c>
       <c r="E10" s="1">
         <v>40071</v>
       </c>
       <c r="F10" s="2">
         <v>205500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1348,14 +1349,14 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1667</v>
-      </c>
       <c r="E11" s="1">
         <v>39795</v>
       </c>
       <c r="F11" s="2">
         <v>103600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,14 +1369,14 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>3814</v>
-      </c>
       <c r="E12" s="1">
         <v>39801</v>
       </c>
       <c r="F12" s="2">
         <v>90560</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1388,14 +1389,14 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>9497</v>
-      </c>
       <c r="E13" s="1">
         <v>41336</v>
       </c>
       <c r="F13" s="2">
         <v>342000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1408,14 +1409,14 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>6741</v>
-      </c>
       <c r="E14" s="1">
         <v>39737</v>
       </c>
       <c r="F14" s="2">
         <v>470600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1428,14 +1429,14 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15">
-        <v>3597</v>
-      </c>
       <c r="E15" s="1">
         <v>41261</v>
       </c>
       <c r="F15" s="2">
         <v>313500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1448,17 +1449,17 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16">
-        <v>1965</v>
-      </c>
       <c r="E16" s="1">
         <v>40254</v>
       </c>
       <c r="F16" s="2">
         <v>385750</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1468,17 +1469,17 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
-        <v>1581</v>
-      </c>
       <c r="E17" s="1">
         <v>41240</v>
       </c>
       <c r="F17" s="2">
         <v>198500</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1488,17 +1489,17 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
-        <v>3059</v>
-      </c>
       <c r="E18" s="1">
         <v>40338</v>
       </c>
       <c r="F18" s="2">
         <v>725000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1508,17 +1509,17 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19">
-        <v>1721</v>
-      </c>
       <c r="E19" s="1">
         <v>39913</v>
       </c>
       <c r="F19" s="2">
         <v>237500</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1528,17 +1529,17 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20">
-        <v>2558</v>
-      </c>
       <c r="E20" s="1">
         <v>41195</v>
       </c>
       <c r="F20" s="2">
         <v>132000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1548,17 +1549,17 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>2290</v>
-      </c>
       <c r="E21" s="1">
         <v>41178</v>
       </c>
       <c r="F21" s="2">
         <v>217500</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1568,17 +1569,17 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>1937</v>
-      </c>
       <c r="E22" s="1">
         <v>40789</v>
       </c>
       <c r="F22" s="2">
         <v>345000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1588,17 +1589,17 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23">
-        <v>6154</v>
-      </c>
       <c r="E23" s="1">
         <v>39989</v>
       </c>
       <c r="F23" s="2">
         <v>675000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1608,17 +1609,17 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24">
-        <v>8330</v>
-      </c>
       <c r="E24" s="1">
         <v>40889</v>
       </c>
       <c r="F24" s="2">
         <v>106450</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1628,17 +1629,17 @@
       <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D25">
-        <v>3023</v>
-      </c>
       <c r="E25" s="1">
         <v>40441</v>
       </c>
       <c r="F25" s="2">
         <v>85600</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1648,17 +1649,17 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26">
-        <v>5797</v>
-      </c>
       <c r="E26" s="1">
         <v>40095</v>
       </c>
       <c r="F26" s="2">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1668,17 +1669,17 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>8822</v>
-      </c>
       <c r="E27" s="1">
         <v>40534</v>
       </c>
       <c r="F27" s="2">
         <v>92575</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1688,17 +1689,17 @@
       <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="D28">
-        <v>9239</v>
-      </c>
       <c r="E28" s="1">
         <v>40496</v>
       </c>
       <c r="F28" s="2">
         <v>357650</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1708,17 +1709,17 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
-        <v>1314</v>
-      </c>
       <c r="E29" s="1">
         <v>40701</v>
       </c>
       <c r="F29" s="2">
         <v>206850</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1728,17 +1729,17 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30">
-        <v>2947</v>
-      </c>
       <c r="E30" s="1">
         <v>40248</v>
       </c>
       <c r="F30" s="2">
         <v>850000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1748,17 +1749,17 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>8899</v>
-      </c>
       <c r="E31" s="1">
         <v>40769</v>
       </c>
       <c r="F31" s="2">
         <v>163000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1768,17 +1769,17 @@
       <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="D32">
-        <v>2769</v>
-      </c>
       <c r="E32" s="1">
         <v>40696</v>
       </c>
       <c r="F32" s="2">
         <v>95400</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1788,17 +1789,17 @@
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D33">
-        <v>6832</v>
-      </c>
       <c r="E33" s="1">
         <v>40108</v>
       </c>
       <c r="F33" s="2">
         <v>114500</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1808,17 +1809,17 @@
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34">
-        <v>3606</v>
-      </c>
       <c r="E34" s="1">
         <v>40670</v>
       </c>
       <c r="F34" s="2">
         <v>145000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1828,17 +1829,17 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35">
-        <v>2860</v>
-      </c>
       <c r="E35" s="1">
         <v>39747</v>
       </c>
       <c r="F35" s="2">
         <v>235500</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1848,17 +1849,17 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>8240</v>
-      </c>
       <c r="E36" s="1">
         <v>40611</v>
       </c>
       <c r="F36" s="2">
         <v>324050</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1868,14 +1869,14 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37">
-        <v>5384</v>
-      </c>
       <c r="E37" s="1">
         <v>40156</v>
       </c>
       <c r="F37" s="2">
         <v>85675</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/issues-data/issues.xlsx
+++ b/issues-data/issues.xlsx
@@ -13,13 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$E$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="81">
   <si>
     <t>Tiger Nixon</t>
   </si>
@@ -256,6 +261,12 @@
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Suspendisse accumsan tincidunt odio, eget feugiat sem aliquet aliquet. Morbi placerat quam libero, vel pharetra velit sodales sit amet. Nullam egestas varius pellentesque. Nunc a lectus tempus, semper odio sed, varius metus. Proin mattis metus vel suscipit ornare.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1132,7 @@
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
@@ -1161,162 +1173,234 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>40658</v>
+        <v>39737</v>
       </c>
       <c r="F2" s="2">
-        <v>320800</v>
+        <v>470600</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40465</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="1">
-        <v>40749</v>
+        <v>39747</v>
       </c>
       <c r="F3" s="2">
-        <v>170750</v>
+        <v>235500</v>
       </c>
       <c r="G3" t="s">
         <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40496</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="1">
-        <v>39825</v>
+        <v>39780</v>
       </c>
       <c r="F4" s="2">
-        <v>86000</v>
+        <v>162700</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40534</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1">
-        <v>40997</v>
+        <v>39795</v>
       </c>
       <c r="F5" s="2">
-        <v>433060</v>
+        <v>103600</v>
       </c>
       <c r="G5" t="s">
         <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40611</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="1">
-        <v>39780</v>
+        <v>39801</v>
       </c>
       <c r="F6" s="2">
-        <v>162700</v>
+        <v>90560</v>
       </c>
       <c r="G6" t="s">
         <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40658</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>41245</v>
+        <v>39825</v>
       </c>
       <c r="F7" s="2">
-        <v>372000</v>
+        <v>86000</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40670</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="1">
-        <v>41127</v>
+        <v>39913</v>
       </c>
       <c r="F8" s="2">
-        <v>137500</v>
+        <v>237500</v>
       </c>
       <c r="G8" t="s">
         <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40696</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>40465</v>
+        <v>39989</v>
       </c>
       <c r="F9" s="2">
-        <v>327900</v>
+        <v>675000</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40701</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1329,6 +1413,9 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="1">
         <v>40071</v>
       </c>
@@ -1338,549 +1425,958 @@
       <c r="G10" t="s">
         <v>78</v>
       </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40749</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="1">
-        <v>39795</v>
+        <v>40095</v>
       </c>
       <c r="F11" s="2">
-        <v>103600</v>
+        <v>1200000</v>
       </c>
       <c r="G11" t="s">
         <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40769</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="1">
-        <v>39801</v>
+        <v>40108</v>
       </c>
       <c r="F12" s="2">
-        <v>90560</v>
+        <v>114500</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40789</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
       </c>
       <c r="E13" s="1">
-        <v>41336</v>
+        <v>40156</v>
       </c>
       <c r="F13" s="2">
-        <v>342000</v>
+        <v>85675</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40889</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="1">
-        <v>39737</v>
+        <v>40248</v>
       </c>
       <c r="F14" s="2">
-        <v>470600</v>
+        <v>850000</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40997</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="1">
-        <v>41261</v>
+        <v>40254</v>
       </c>
       <c r="F15" s="2">
-        <v>313500</v>
+        <v>385750</v>
       </c>
       <c r="G15" t="s">
         <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1">
+        <v>41127</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40338</v>
+      </c>
+      <c r="F16" s="2">
+        <v>725000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="1">
+        <v>41178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>40441</v>
+      </c>
+      <c r="F17" s="2">
+        <v>85600</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="1">
+        <v>41195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>40465</v>
+      </c>
+      <c r="F18" s="2">
+        <v>327900</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1">
+        <v>41240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1">
-        <v>40254</v>
-      </c>
-      <c r="F16" s="2">
-        <v>385750</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1">
-        <v>41240</v>
-      </c>
-      <c r="F17" s="2">
-        <v>198500</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>40338</v>
-      </c>
-      <c r="F18" s="2">
-        <v>725000</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="1">
-        <v>39913</v>
+        <v>40496</v>
       </c>
       <c r="F19" s="2">
-        <v>237500</v>
+        <v>357650</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="1">
+        <v>41245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
       </c>
       <c r="E20" s="1">
-        <v>41195</v>
+        <v>40534</v>
       </c>
       <c r="F20" s="2">
-        <v>132000</v>
+        <v>92575</v>
       </c>
       <c r="G20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="1">
+        <v>41261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
       <c r="E21" s="1">
+        <v>40611</v>
+      </c>
+      <c r="F21" s="2">
+        <v>324050</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="1">
+        <v>41336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>40658</v>
+      </c>
+      <c r="F22" s="2">
+        <v>320800</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40670</v>
+      </c>
+      <c r="F23" s="2">
+        <v>145000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1">
+        <v>40696</v>
+      </c>
+      <c r="F24" s="2">
+        <v>95400</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1">
+        <v>40701</v>
+      </c>
+      <c r="F25" s="2">
+        <v>206850</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40749</v>
+      </c>
+      <c r="F26" s="2">
+        <v>170750</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1">
+        <v>40769</v>
+      </c>
+      <c r="F27" s="2">
+        <v>163000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40789</v>
+      </c>
+      <c r="F28" s="2">
+        <v>345000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40889</v>
+      </c>
+      <c r="F29" s="2">
+        <v>106450</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40997</v>
+      </c>
+      <c r="F30" s="2">
+        <v>433060</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1">
+        <v>41127</v>
+      </c>
+      <c r="F31" s="2">
+        <v>137500</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1">
         <v>41178</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F32" s="2">
         <v>217500</v>
       </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1">
-        <v>40789</v>
-      </c>
-      <c r="F22" s="2">
-        <v>345000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1">
-        <v>39989</v>
-      </c>
-      <c r="F23" s="2">
-        <v>675000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1">
-        <v>40889</v>
-      </c>
-      <c r="F24" s="2">
-        <v>106450</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1">
-        <v>40441</v>
-      </c>
-      <c r="F25" s="2">
-        <v>85600</v>
-      </c>
-      <c r="G25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="1">
-        <v>40095</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>40534</v>
-      </c>
-      <c r="F27" s="2">
-        <v>92575</v>
-      </c>
-      <c r="G27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1">
-        <v>40496</v>
-      </c>
-      <c r="F28" s="2">
-        <v>357650</v>
-      </c>
-      <c r="G28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
         <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1">
-        <v>40701</v>
-      </c>
-      <c r="F29" s="2">
-        <v>206850</v>
-      </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <v>40248</v>
-      </c>
-      <c r="F30" s="2">
-        <v>850000</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>40769</v>
-      </c>
-      <c r="F31" s="2">
-        <v>163000</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="1">
-        <v>40696</v>
-      </c>
-      <c r="F32" s="2">
-        <v>95400</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
       <c r="E33" s="1">
-        <v>40108</v>
+        <v>41195</v>
       </c>
       <c r="F33" s="2">
-        <v>114500</v>
+        <v>132000</v>
       </c>
       <c r="G33" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
       <c r="E34" s="1">
-        <v>40670</v>
+        <v>41240</v>
       </c>
       <c r="F34" s="2">
-        <v>145000</v>
+        <v>198500</v>
       </c>
       <c r="G34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
       </c>
       <c r="E35" s="1">
-        <v>39747</v>
+        <v>41245</v>
       </c>
       <c r="F35" s="2">
-        <v>235500</v>
+        <v>372000</v>
       </c>
       <c r="G35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1">
+        <v>41261</v>
+      </c>
+      <c r="F36" s="2">
+        <v>313500</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="1">
-        <v>40611</v>
-      </c>
-      <c r="F36" s="2">
-        <v>324050</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+      <c r="D37" t="s">
+        <v>27</v>
       </c>
       <c r="E37" s="1">
-        <v>40156</v>
+        <v>41336</v>
       </c>
       <c r="F37" s="2">
-        <v>85675</v>
+        <v>342000</v>
       </c>
       <c r="G37" t="s">
         <v>78</v>
       </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E37">
+    <sortState ref="A2:I37">
+      <sortCondition ref="E1:E37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A18:A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>39737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>39747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>39780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>39795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>39801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>39825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>39913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>39989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>40071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>40254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>40338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>40496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>40534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>40658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>40696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>40701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>40749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>40769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>40789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>40997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>41336</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A36">
+    <sortState ref="A2:A36">
+      <sortCondition descending="1" ref="A1:A36"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/issues-data/issues.xlsx
+++ b/issues-data/issues.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="data-ready" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$E$1:$E$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'data-ready'!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$A$1:$A$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="82">
   <si>
     <t>Tiger Nixon</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I37" sqref="A2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,22 +1176,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
-        <v>39737</v>
+        <v>39780</v>
       </c>
       <c r="F2" s="2">
-        <v>470600</v>
+        <v>162700</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -1197,27 +1200,27 @@
         <v>79</v>
       </c>
       <c r="I2" s="1">
-        <v>40465</v>
+        <v>40534</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1">
-        <v>39747</v>
+        <v>40095</v>
       </c>
       <c r="F3" s="2">
-        <v>235500</v>
+        <v>1200000</v>
       </c>
       <c r="G3" t="s">
         <v>78</v>
@@ -1226,27 +1229,27 @@
         <v>79</v>
       </c>
       <c r="I3" s="1">
-        <v>40496</v>
+        <v>40769</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>39780</v>
+        <v>39825</v>
       </c>
       <c r="F4" s="2">
-        <v>162700</v>
+        <v>86000</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -1255,172 +1258,157 @@
         <v>79</v>
       </c>
       <c r="I4" s="1">
-        <v>40534</v>
+        <v>40670</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>39795</v>
+        <v>41195</v>
       </c>
       <c r="F5" s="2">
-        <v>103600</v>
+        <v>132000</v>
       </c>
       <c r="G5" t="s">
         <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="1">
-        <v>40611</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1">
-        <v>39801</v>
+        <v>40701</v>
       </c>
       <c r="F6" s="2">
-        <v>90560</v>
+        <v>206850</v>
       </c>
       <c r="G6" t="s">
         <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="1">
-        <v>40658</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>39825</v>
+        <v>41245</v>
       </c>
       <c r="F7" s="2">
-        <v>86000</v>
+        <v>372000</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="1">
-        <v>40670</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1">
-        <v>39913</v>
+        <v>40889</v>
       </c>
       <c r="F8" s="2">
-        <v>237500</v>
+        <v>106450</v>
       </c>
       <c r="G8" t="s">
         <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="1">
-        <v>40696</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>39989</v>
+        <v>40997</v>
       </c>
       <c r="F9" s="2">
-        <v>675000</v>
+        <v>433060</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1">
-        <v>40701</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>40071</v>
+        <v>39737</v>
       </c>
       <c r="F10" s="2">
-        <v>205500</v>
+        <v>470600</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -1429,27 +1417,27 @@
         <v>79</v>
       </c>
       <c r="I10" s="1">
-        <v>40749</v>
+        <v>40465</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1">
-        <v>40095</v>
+        <v>40071</v>
       </c>
       <c r="F11" s="2">
-        <v>1200000</v>
+        <v>205500</v>
       </c>
       <c r="G11" t="s">
         <v>78</v>
@@ -1458,56 +1446,53 @@
         <v>79</v>
       </c>
       <c r="I11" s="1">
-        <v>40769</v>
+        <v>40749</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
-        <v>40108</v>
+        <v>41178</v>
       </c>
       <c r="F12" s="2">
-        <v>114500</v>
+        <v>217500</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1">
-        <v>40789</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
-        <v>40156</v>
+        <v>40441</v>
       </c>
       <c r="F13" s="2">
-        <v>85675</v>
+        <v>85600</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -1516,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="I13" s="1">
-        <v>40889</v>
+        <v>41195</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1550,51 +1535,48 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1">
-        <v>40254</v>
+        <v>40749</v>
       </c>
       <c r="F15" s="2">
-        <v>385750</v>
+        <v>170750</v>
       </c>
       <c r="G15" t="s">
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1">
-        <v>41127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1">
-        <v>40338</v>
+        <v>39747</v>
       </c>
       <c r="F16" s="2">
-        <v>725000</v>
+        <v>235500</v>
       </c>
       <c r="G16" t="s">
         <v>78</v>
@@ -1603,27 +1585,27 @@
         <v>79</v>
       </c>
       <c r="I16" s="1">
-        <v>41178</v>
+        <v>40496</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1">
-        <v>40441</v>
+        <v>40534</v>
       </c>
       <c r="F17" s="2">
-        <v>85600</v>
+        <v>92575</v>
       </c>
       <c r="G17" t="s">
         <v>78</v>
@@ -1632,27 +1614,27 @@
         <v>79</v>
       </c>
       <c r="I17" s="1">
-        <v>41195</v>
+        <v>41261</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1">
-        <v>40465</v>
+        <v>39913</v>
       </c>
       <c r="F18" s="2">
-        <v>327900</v>
+        <v>237500</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -1661,85 +1643,79 @@
         <v>79</v>
       </c>
       <c r="I18" s="1">
-        <v>41240</v>
+        <v>40696</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
-        <v>40496</v>
+        <v>41261</v>
       </c>
       <c r="F19" s="2">
-        <v>357650</v>
+        <v>313500</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1">
-        <v>41245</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1">
-        <v>40534</v>
+        <v>41127</v>
       </c>
       <c r="F20" s="2">
-        <v>92575</v>
+        <v>137500</v>
       </c>
       <c r="G20" t="s">
         <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="1">
-        <v>41261</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1">
-        <v>40611</v>
+        <v>39801</v>
       </c>
       <c r="F21" s="2">
-        <v>324050</v>
+        <v>90560</v>
       </c>
       <c r="G21" t="s">
         <v>78</v>
@@ -1748,27 +1724,27 @@
         <v>79</v>
       </c>
       <c r="I21" s="1">
-        <v>41336</v>
+        <v>40658</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1">
-        <v>40658</v>
+        <v>40789</v>
       </c>
       <c r="F22" s="2">
-        <v>320800</v>
+        <v>345000</v>
       </c>
       <c r="G22" t="s">
         <v>78</v>
@@ -1779,74 +1755,80 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1">
-        <v>40670</v>
+        <v>40496</v>
       </c>
       <c r="F23" s="2">
-        <v>145000</v>
+        <v>357650</v>
       </c>
       <c r="G23" t="s">
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="I23" s="1">
+        <v>41245</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>40696</v>
+        <v>40611</v>
       </c>
       <c r="F24" s="2">
-        <v>95400</v>
+        <v>324050</v>
       </c>
       <c r="G24" t="s">
         <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="I24" s="1">
+        <v>41336</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1">
-        <v>40701</v>
+        <v>41240</v>
       </c>
       <c r="F25" s="2">
-        <v>206850</v>
+        <v>198500</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -1857,22 +1839,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
-        <v>40749</v>
+        <v>40696</v>
       </c>
       <c r="F26" s="2">
-        <v>170750</v>
+        <v>95400</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -1883,48 +1865,51 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
-        <v>40769</v>
+        <v>40338</v>
       </c>
       <c r="F27" s="2">
-        <v>163000</v>
+        <v>725000</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="I27" s="1">
+        <v>41178</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1">
-        <v>40789</v>
+        <v>40670</v>
       </c>
       <c r="F28" s="2">
-        <v>345000</v>
+        <v>145000</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -1935,22 +1920,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
-        <v>40889</v>
+        <v>41336</v>
       </c>
       <c r="F29" s="2">
-        <v>106450</v>
+        <v>342000</v>
       </c>
       <c r="G29" t="s">
         <v>78</v>
@@ -1961,48 +1946,51 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
       <c r="E30" s="1">
-        <v>40997</v>
+        <v>40465</v>
       </c>
       <c r="F30" s="2">
-        <v>433060</v>
+        <v>327900</v>
       </c>
       <c r="G30" t="s">
         <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="I30" s="1">
+        <v>41240</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
-        <v>41127</v>
+        <v>40769</v>
       </c>
       <c r="F31" s="2">
-        <v>137500</v>
+        <v>163000</v>
       </c>
       <c r="G31" t="s">
         <v>78</v>
@@ -2013,100 +2001,109 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1">
-        <v>41178</v>
+        <v>39795</v>
       </c>
       <c r="F32" s="2">
-        <v>217500</v>
+        <v>103600</v>
       </c>
       <c r="G32" t="s">
         <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40108</v>
+      </c>
+      <c r="F33" s="2">
+        <v>114500</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="1">
-        <v>41195</v>
-      </c>
-      <c r="F33" s="2">
-        <v>132000</v>
-      </c>
-      <c r="G33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1">
-        <v>41240</v>
+        <v>40254</v>
       </c>
       <c r="F34" s="2">
-        <v>198500</v>
+        <v>385750</v>
       </c>
       <c r="G34" t="s">
         <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I34" s="1">
+        <v>41127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1">
-        <v>41245</v>
+        <v>40658</v>
       </c>
       <c r="F35" s="2">
-        <v>372000</v>
+        <v>320800</v>
       </c>
       <c r="G35" t="s">
         <v>78</v>
@@ -2114,63 +2111,72 @@
       <c r="H35" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1">
-        <v>41261</v>
+        <v>40156</v>
       </c>
       <c r="F36" s="2">
-        <v>313500</v>
+        <v>85675</v>
       </c>
       <c r="G36" t="s">
         <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>41336</v>
+        <v>39989</v>
       </c>
       <c r="F37" s="2">
-        <v>342000</v>
+        <v>675000</v>
       </c>
       <c r="G37" t="s">
         <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40701</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E37">
+  <autoFilter ref="A1:A37">
     <sortState ref="A2:I37">
-      <sortCondition ref="E1:E37"/>
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,195 +2186,1043 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A18:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1">
+        <v>39780</v>
+      </c>
+      <c r="F2" s="2">
+        <v>162700</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40095</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39825</v>
+      </c>
+      <c r="F4" s="2">
+        <v>86000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41195</v>
+      </c>
+      <c r="F5" s="2">
+        <v>132000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40701</v>
+      </c>
+      <c r="F6" s="2">
+        <v>206850</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41245</v>
+      </c>
+      <c r="F7" s="2">
+        <v>372000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40889</v>
+      </c>
+      <c r="F8" s="2">
+        <v>106450</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40997</v>
+      </c>
+      <c r="F9" s="2">
+        <v>433060</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
         <v>39737</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F10" s="2">
+        <v>470600</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40071</v>
+      </c>
+      <c r="F11" s="2">
+        <v>205500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41178</v>
+      </c>
+      <c r="F12" s="2">
+        <v>217500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40441</v>
+      </c>
+      <c r="F13" s="2">
+        <v>85600</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1">
+        <v>41195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40248</v>
+      </c>
+      <c r="F14" s="2">
+        <v>850000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40749</v>
+      </c>
+      <c r="F15" s="2">
+        <v>170750</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1">
         <v>39747</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>39780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F16" s="2">
+        <v>235500</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1">
+        <v>40534</v>
+      </c>
+      <c r="F17" s="2">
+        <v>92575</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="1">
+        <v>41261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>39913</v>
+      </c>
+      <c r="F18" s="2">
+        <v>237500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1">
+        <v>40696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>41261</v>
+      </c>
+      <c r="F19" s="2">
+        <v>313500</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1">
+        <v>41127</v>
+      </c>
+      <c r="F20" s="2">
+        <v>137500</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1">
+        <v>39801</v>
+      </c>
+      <c r="F21" s="2">
+        <v>90560</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="1">
+        <v>40658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1">
+        <v>40789</v>
+      </c>
+      <c r="F22" s="2">
+        <v>345000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40496</v>
+      </c>
+      <c r="F23" s="2">
+        <v>357650</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="1">
+        <v>41245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>40611</v>
+      </c>
+      <c r="F24" s="2">
+        <v>324050</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1">
+        <v>41336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1">
+        <v>41240</v>
+      </c>
+      <c r="F25" s="2">
+        <v>198500</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40696</v>
+      </c>
+      <c r="F26" s="2">
+        <v>95400</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1">
+        <v>40338</v>
+      </c>
+      <c r="F27" s="2">
+        <v>725000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="1">
+        <v>41178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40670</v>
+      </c>
+      <c r="F28" s="2">
+        <v>145000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <v>41336</v>
+      </c>
+      <c r="F29" s="2">
+        <v>342000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40465</v>
+      </c>
+      <c r="F30" s="2">
+        <v>327900</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1">
+        <v>41240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1">
+        <v>40769</v>
+      </c>
+      <c r="F31" s="2">
+        <v>163000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
         <v>39795</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>39801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>39825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>39913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F32" s="2">
+        <v>103600</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40108</v>
+      </c>
+      <c r="F33" s="2">
+        <v>114500</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1">
+        <v>40254</v>
+      </c>
+      <c r="F34" s="2">
+        <v>385750</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="1">
+        <v>41127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>40658</v>
+      </c>
+      <c r="F35" s="2">
+        <v>320800</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1">
+        <v>40156</v>
+      </c>
+      <c r="F36" s="2">
+        <v>85675</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
         <v>39989</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>40071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>40095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>40108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>40156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>40248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>40254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>40338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>40441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>40465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>40496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>40534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>40611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>40658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>40670</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>40696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="F37" s="2">
+        <v>675000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="1">
         <v>40701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>40749</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>40769</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>40789</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>40889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>40997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>41127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>41178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>41195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>41240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>41245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>41261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>41336</v>
       </c>
     </row>
   </sheetData>

--- a/issues-data/issues.xlsx
+++ b/issues-data/issues.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="83">
   <si>
     <t>Tiger Nixon</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet….</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="A2:I37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1197,7 @@
         <v>162700</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
         <v>79</v>
@@ -1223,7 +1226,7 @@
         <v>1200000</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>79</v>
@@ -1252,7 +1255,7 @@
         <v>86000</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>79</v>
@@ -1281,7 +1284,7 @@
         <v>132000</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>80</v>
@@ -1307,7 +1310,7 @@
         <v>206850</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
@@ -1333,7 +1336,7 @@
         <v>372000</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>80</v>
@@ -1359,7 +1362,7 @@
         <v>106450</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>80</v>
@@ -1385,7 +1388,7 @@
         <v>433060</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
@@ -1411,7 +1414,7 @@
         <v>470600</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
@@ -1440,7 +1443,7 @@
         <v>205500</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>79</v>
@@ -1469,7 +1472,7 @@
         <v>217500</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>80</v>
@@ -1495,7 +1498,7 @@
         <v>85600</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
         <v>79</v>
@@ -1524,7 +1527,7 @@
         <v>850000</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
         <v>79</v>
@@ -1553,7 +1556,7 @@
         <v>170750</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>80</v>
@@ -1579,7 +1582,7 @@
         <v>235500</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>79</v>
@@ -1608,7 +1611,7 @@
         <v>92575</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>79</v>
@@ -1637,7 +1640,7 @@
         <v>237500</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>79</v>
@@ -1666,7 +1669,7 @@
         <v>313500</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -1692,7 +1695,7 @@
         <v>137500</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
@@ -1718,7 +1721,7 @@
         <v>90560</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
         <v>79</v>
@@ -1747,7 +1750,7 @@
         <v>345000</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
@@ -1773,7 +1776,7 @@
         <v>357650</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>79</v>
@@ -1802,7 +1805,7 @@
         <v>324050</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>79</v>
@@ -1831,7 +1834,7 @@
         <v>198500</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
@@ -1857,7 +1860,7 @@
         <v>95400</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>80</v>
@@ -1883,7 +1886,7 @@
         <v>725000</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
         <v>79</v>
@@ -1912,7 +1915,7 @@
         <v>145000</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
         <v>80</v>
@@ -1938,7 +1941,7 @@
         <v>342000</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
         <v>80</v>
@@ -1964,7 +1967,7 @@
         <v>327900</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>79</v>
@@ -1993,7 +1996,7 @@
         <v>163000</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>80</v>
@@ -2019,7 +2022,7 @@
         <v>103600</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>79</v>
@@ -2048,7 +2051,7 @@
         <v>114500</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>79</v>
@@ -2077,7 +2080,7 @@
         <v>385750</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>79</v>
@@ -2106,7 +2109,7 @@
         <v>320800</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
         <v>80</v>
@@ -2135,7 +2138,7 @@
         <v>85675</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
         <v>79</v>
@@ -2164,7 +2167,7 @@
         <v>675000</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
         <v>79</v>
@@ -2188,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I37"/>
     </sheetView>
   </sheetViews>
